--- a/Documentação/Planilhas/Conferencia_GAR.xlsx
+++ b/Documentação/Planilhas/Conferencia_GAR.xlsx
@@ -398,18 +398,6 @@
     <t>Aguardando resposta do Fábio. Ele verá com o Sergio se poderá pegar o status do aviso do parceiro</t>
   </si>
   <si>
-    <t>Sessão cislil504m00l</t>
-  </si>
-  <si>
-    <t>Sessão tccom4530m000</t>
-  </si>
-  <si>
-    <t>Sessão tcibd0501m000</t>
-  </si>
-  <si>
-    <t>Sessão zncomc504m900 [ Na coluna "Ordem de Venda LN" informar o NR_ORDEM e, caso não apareça na primeira tela, ir com a seta "Next Record(s)" até encontrá-lo]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pegar a informação da coluna "Ordem de Venda LN" </t>
   </si>
   <si>
@@ -440,9 +428,6 @@
     <t>Fazer o detalhamento da mesma. Na aba "Garantia", seção "Garantia", pegar a informação do "Plano de Garantia"</t>
   </si>
   <si>
-    <t>Sessão znslsc500m000 [Informar o NR_PEDIDO na coluna "Pedido do Cliente" e, caso não apareça na primeira tela, ir com a seta "Next Group" até encontrá-lo.]</t>
-  </si>
-  <si>
     <t>Pegar a informação da coluna "Data de Emissão</t>
   </si>
   <si>
@@ -455,9 +440,6 @@
     <t>Fazer o detalhamento da linha apresentada. Na aba superior  "Expedição", pegar a informação de "Cód Lista Casamento"</t>
   </si>
   <si>
-    <t>Sessão tdsls4100m000 [Informar o NR_ORDEM na coluna "Ordem"]</t>
-  </si>
-  <si>
     <t>Pegar a informação de "Status da ordem"</t>
   </si>
   <si>
@@ -483,6 +465,24 @@
   </si>
   <si>
     <t>zncomc504m900, znslsc500m000, tdsls4100m000, cislil504m00l, tccom4530m000 e tcibd0501m000</t>
+  </si>
+  <si>
+    <t>Sessão zncomc504m900 (Aviso de Parceiro - Detalhes) [ Na coluna "Ordem de Venda LN" informar o NR_ORDEM e, caso não apareça na primeira tela, ir com a seta "Next Record(s)" até encontrá-lo]</t>
+  </si>
+  <si>
+    <t>Sessão znslsc500m000 (Pedidos de Venda Integrados) [Informar o NR_PEDIDO na coluna "Pedido do Cliente" e, caso não apareça na primeira tela, ir com a seta "Next Group" até encontrá-lo.]</t>
+  </si>
+  <si>
+    <t>Sessão tdsls4100m000 (Ordens de Vendas) [Informar o NR_ORDEM na coluna "Ordem"]</t>
+  </si>
+  <si>
+    <t>Sessão cislil504m00l (Nota Fiscal)</t>
+  </si>
+  <si>
+    <t>Sessão tccom4530m000 (Endereços)</t>
+  </si>
+  <si>
+    <t>Sessão tcibd0501m000 (itens - Geral)</t>
   </si>
 </sst>
 </file>
@@ -735,34 +735,37 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -774,32 +777,32 @@
     <xf numFmtId="49" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -810,10 +813,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1123,9 +1123,7 @@
   </sheetPr>
   <dimension ref="A1:CB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:L20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -1222,10 +1220,10 @@
       <c r="BJ1" s="6"/>
     </row>
     <row r="2" spans="1:80" ht="21">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
@@ -1238,12 +1236,12 @@
       <c r="BJ2" s="6"/>
     </row>
     <row r="3" spans="1:80" ht="21">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="BJ3" s="6"/>
     </row>
@@ -2167,357 +2165,357 @@
       </c>
     </row>
     <row r="18" spans="1:80" ht="11.25" customHeight="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z18" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:80" ht="11.25" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+    </row>
+    <row r="20" spans="1:80" ht="11.25" customHeight="1">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+    </row>
+    <row r="21" spans="1:80" ht="11.25" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="23" t="s">
+      <c r="F21" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q21" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="13" t="s">
+      <c r="R21" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="V21" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y18" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z18" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:80" ht="11.25" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-    </row>
-    <row r="20" spans="1:80" ht="11.25" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-    </row>
-    <row r="21" spans="1:80" ht="11.25" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M21" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q21" s="7" t="s">
+      <c r="W21" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="R21" s="7" t="s">
+      <c r="X21" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="S21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="U21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="V21" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="W21" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="X21" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y21" s="8" t="s">
+      <c r="Y21" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="Z21" s="7" t="s">
+      <c r="Z21" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="AA21" s="10" t="s">
+      <c r="AA21" s="27" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:80">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="10"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="27"/>
     </row>
     <row r="23" spans="1:80">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="10"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="27"/>
     </row>
     <row r="24" spans="1:80">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="10"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="27"/>
     </row>
     <row r="25" spans="1:80">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="10"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="27"/>
     </row>
     <row r="26" spans="1:80">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="10"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="27"/>
     </row>
     <row r="27" spans="1:80">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="10"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="27"/>
     </row>
     <row r="28" spans="1:80">
       <c r="CB28" s="1"/>
@@ -2527,28 +2525,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="Z18:Z20"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="M18:P20"/>
-    <mergeCell ref="A18:L20"/>
-    <mergeCell ref="AA21:AA27"/>
-    <mergeCell ref="Q18:W20"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="Y18:Y20"/>
-    <mergeCell ref="W21:W27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="Q21:Q27"/>
-    <mergeCell ref="M21:M27"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="H21:H27"/>
-    <mergeCell ref="Z21:Z27"/>
-    <mergeCell ref="Y21:Y27"/>
     <mergeCell ref="X21:X27"/>
     <mergeCell ref="I21:I27"/>
     <mergeCell ref="U21:U27"/>
@@ -2562,6 +2538,28 @@
     <mergeCell ref="S21:S27"/>
     <mergeCell ref="T21:T27"/>
     <mergeCell ref="V21:V27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="Z18:Z20"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="M18:P20"/>
+    <mergeCell ref="A18:L20"/>
+    <mergeCell ref="AA21:AA27"/>
+    <mergeCell ref="Q18:W20"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="Y18:Y20"/>
+    <mergeCell ref="W21:W27"/>
+    <mergeCell ref="Q21:Q27"/>
+    <mergeCell ref="M21:M27"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="H21:H27"/>
+    <mergeCell ref="Z21:Z27"/>
+    <mergeCell ref="Y21:Y27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
